--- a/tests/simple_orders.xlsx
+++ b/tests/simple_orders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insulin\Documents\Coding\Python Coding\cointracker-v2-git\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E3DD9D-50E5-40F6-A857-2BADD14B8457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365962D1-A6BD-421A-9DED-659C15931963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6792" yWindow="4896" windowWidth="34560" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="4632" windowWidth="30192" windowHeight="16884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,18 +57,6 @@
     <t>Fee</t>
   </si>
   <si>
-    <t>Fee Coin</t>
-  </si>
-  <si>
-    <t>Market 1 USD Spot Price</t>
-  </si>
-  <si>
-    <t>Market 2 USD Spot Price</t>
-  </si>
-  <si>
-    <t>Fee Coin USD Spot Price</t>
-  </si>
-  <si>
     <t>ETH-USD</t>
   </si>
   <si>
@@ -79,6 +67,18 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Market 1 Fiat Spot Price</t>
+  </si>
+  <si>
+    <t>Market 2 Fiat Spot Price</t>
+  </si>
+  <si>
+    <t>Fee Asset Fiat Spot Price</t>
+  </si>
+  <si>
+    <t>Fee Asset</t>
   </si>
 </sst>
 </file>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,16 +431,16 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -448,10 +448,10 @@
         <v>44590</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <f>D2</f>
@@ -485,10 +485,10 @@
         <v>44591</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1100</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I5" si="1">D3</f>
@@ -522,10 +522,10 @@
         <v>44600</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <f t="shared" si="1"/>
@@ -559,10 +559,10 @@
         <v>44621.666666666664</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>1200</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <f t="shared" si="1"/>

--- a/tests/simple_orders.xlsx
+++ b/tests/simple_orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Insulin\Documents\Coding\Python Coding\cointracker-v2-git\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365962D1-A6BD-421A-9DED-659C15931963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3533D179-C701-49BA-A5FB-9E2986EFD710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="4632" windowWidth="30192" windowHeight="16884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6384" yWindow="4500" windowWidth="30192" windowHeight="16884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44621.666666666664</v>
+        <v>44621</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
